--- a/va_facility_data_2025-02-20/Paducah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paducah%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Paducah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paducah%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re4c6c8c6b30f4425a4917f4ce16a1a5b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R470de2c018fa4f28811d810a26c459cd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R82fd8aa0b89f4485af5f1ffa672edf74"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8813d0450c0649e0b0e69d0f71990a46"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd09eff6834204d3ba1ba078b4054952c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reab7b61d77184b1bb5d93b5bcd8432c1"/>
   </x:sheets>
 </x:workbook>
 </file>
